--- a/Stroop/colores2_rectangulos.xlsx
+++ b/Stroop/colores2_rectangulos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\OpenBrains\Stroop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C2993D-EC86-4A2B-9103-7B10C8E3B623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E493D446-5F68-413C-9723-C5D735AE1FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{AFD00EA6-54EE-4757-A332-6E8FE2D438ED}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="8">
   <si>
     <t>[-1, -1, 1]</t>
   </si>
@@ -48,6 +48,18 @@
   </si>
   <si>
     <t>color</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>v</t>
   </si>
 </sst>
 </file>
@@ -399,165 +411,260 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F29059-5D6F-4A28-8B01-844251B7F9C5}">
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Stroop/colores2_rectangulos.xlsx
+++ b/Stroop/colores2_rectangulos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\OpenBrains\Stroop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E493D446-5F68-413C-9723-C5D735AE1FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AA4241-5739-4554-9118-6902B7201504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{AFD00EA6-54EE-4757-A332-6E8FE2D438ED}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="10">
   <si>
     <t>[-1, -1, 1]</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>v</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>[0.004, -1, 0.004]</t>
   </si>
 </sst>
 </file>
@@ -411,13 +417,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F29059-5D6F-4A28-8B01-844251B7F9C5}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:B31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -501,10 +510,10 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -573,18 +582,18 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -645,26 +654,74 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
